--- a/Auswertungen/Auswertung_Genauigkeiten_Motoren.xlsx
+++ b/Auswertungen/Auswertung_Genauigkeiten_Motoren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Jan\Studium Trier\_aktuelles Semester\BA_SLAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\Raumerfassung\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B3DB96-1424-4748-89AB-F884ABCFA23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FFA741-7B86-4F93-B439-209D8E4E350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2880" yWindow="1815" windowWidth="21600" windowHeight="11385" tabRatio="720" firstSheet="4" activeTab="5" xr2:uid="{3379F3D5-D4CB-4F2F-B5B0-0BB5DFFC8355}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="720" firstSheet="1" activeTab="1" xr2:uid="{3379F3D5-D4CB-4F2F-B5B0-0BB5DFFC8355}"/>
   </bookViews>
   <sheets>
     <sheet name="geschwindigkeitsmessung" sheetId="1" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:A180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD2824-8C06-4247-8DB0-8FFA068BADE1}">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,11 +4820,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A61DEAB-3E74-4FF6-BE98-F29698D1CF60}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
